--- a/load_test_results.xlsx
+++ b/load_test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M583"/>
+  <dimension ref="A1:M635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33872,6 +33872,2973 @@
         </is>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>4</v>
+      </c>
+      <c r="C584" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D584" t="n">
+        <v>35874.03416633606</v>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G584" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H584" t="n">
+        <v>300</v>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>4</v>
+      </c>
+      <c r="C585" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D585" t="n">
+        <v>36232.04493522644</v>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G585" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H585" t="n">
+        <v>300</v>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>4</v>
+      </c>
+      <c r="C586" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D586" t="n">
+        <v>39139.26386833191</v>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G586" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H586" t="n">
+        <v>300</v>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>4</v>
+      </c>
+      <c r="C587" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D587" t="n">
+        <v>42663.2239818573</v>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G587" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H587" t="n">
+        <v>300</v>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>4</v>
+      </c>
+      <c r="C588" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D588" t="n">
+        <v>44526.68690681458</v>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G588" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H588" t="n">
+        <v>300</v>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>4</v>
+      </c>
+      <c r="C589" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D589" t="n">
+        <v>52035.33625602722</v>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G589" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H589" t="n">
+        <v>300</v>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>4</v>
+      </c>
+      <c r="C590" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D590" t="n">
+        <v>63740.40102958679</v>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G590" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H590" t="n">
+        <v>300</v>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>I'm fine, thanks for asking! How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>4</v>
+      </c>
+      <c r="C591" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D591" t="n">
+        <v>64239.85886573792</v>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G591" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H591" t="n">
+        <v>300</v>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>4</v>
+      </c>
+      <c r="C592" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D592" t="n">
+        <v>64863.89255523682</v>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G592" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H592" t="n">
+        <v>300</v>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>Yes, I can communicate in English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>4</v>
+      </c>
+      <c r="C593" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D593" t="n">
+        <v>72595.09134292603</v>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G593" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H593" t="n">
+        <v>300</v>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>Yes, I can communicate in English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>4</v>
+      </c>
+      <c r="C594" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D594" t="n">
+        <v>87868.1640625</v>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G594" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H594" t="n">
+        <v>300</v>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>4</v>
+      </c>
+      <c r="C595" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D595" t="n">
+        <v>105012.140750885</v>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G595" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H595" t="n">
+        <v>300</v>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model developed by Alibaba Cloud. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>4</v>
+      </c>
+      <c r="C596" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D596" t="n">
+        <v>114856.4474582672</v>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G596" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H596" t="n">
+        <v>300</v>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>4</v>
+      </c>
+      <c r="C597" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D597" t="n">
+        <v>121357.8355312347</v>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G597" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H597" t="n">
+        <v>300</v>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>4</v>
+      </c>
+      <c r="C598" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D598" t="n">
+        <v>144138.4341716766</v>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G598" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H598" t="n">
+        <v>300</v>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>4</v>
+      </c>
+      <c r="C599" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D599" t="n">
+        <v>148289.7863388062</v>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G599" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H599" t="n">
+        <v>300</v>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or tastes like humans. However, I can provide information about different types of pizzas and their ingredients if that would be useful for you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>4</v>
+      </c>
+      <c r="C600" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D600" t="n">
+        <v>175565.8717155457</v>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G600" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H600" t="n">
+        <v>300</v>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>I'm an artificial intelligence and I don't have feelings like humans do, but I'm here to help you with any questions or tasks you might need assistance with! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>4</v>
+      </c>
+      <c r="C601" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D601" t="n">
+        <v>192986.4275455475</v>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G601" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H601" t="n">
+        <v>300</v>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have feelings or emotions, so I'm not really capable of experiencing the world in the same way as humans do. However, I can assist with various tasks and answer questions to help people in their daily lives! How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>4</v>
+      </c>
+      <c r="C602" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D602" t="n">
+        <v>195381.8109035492</v>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G602" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H602" t="n">
+        <v>300</v>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or feelings like humans do. My purpose is to assist and provide information based on the instructions I was given. If you would like to know what colors may be preferred for certain purposes or activities, please let me know!</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>4</v>
+      </c>
+      <c r="C603" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D603" t="n">
+        <v>195501.3251304626</v>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G603" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H603" t="n">
+        <v>300</v>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or feelings. However, I can provide information about pizza if that would be helpful!</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>4</v>
+      </c>
+      <c r="C604" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D604" t="n">
+        <v>203049.8819351196</v>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G604" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H604" t="n">
+        <v>300</v>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI assistant developed by Alibaba Cloud. My purpose is to help you with information and tasks efficiently. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>4</v>
+      </c>
+      <c r="C605" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D605" t="n">
+        <v>231508.2261562347</v>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G605" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H605" t="n">
+        <v>300</v>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>4</v>
+      </c>
+      <c r="C606" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D606" t="n">
+        <v>232309.4017505646</v>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G606" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H606" t="n">
+        <v>300</v>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model developed by Alibaba Cloud. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>4</v>
+      </c>
+      <c r="C607" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D607" t="n">
+        <v>242949.1610527039</v>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G607" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H607" t="n">
+        <v>300</v>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>4</v>
+      </c>
+      <c r="C608" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D608" t="n">
+        <v>262121.8872070312</v>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G608" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H608" t="n">
+        <v>300</v>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>I don't have personal preferences or taste buds because I am an artificial intelligence designed to assist with natural language processing tasks. However, I can tell you that pizza is a popular and beloved food around the world! If you're ever wondering what kind of toppings would go best on your next slice, feel free to ask.</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>4</v>
+      </c>
+      <c r="C609" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D609" t="n">
+        <v>262858.5393428802</v>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G609" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H609" t="n">
+        <v>300</v>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>Yes, I can! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>4</v>
+      </c>
+      <c r="C610" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D610" t="n">
+        <v>278356.5690517426</v>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G610" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H610" t="n">
+        <v>300</v>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence, I don't have personal preferences or emotions like humans do. I'm here to assist with information and tasks, but I don't experience colors in the same way that humans do. If you're looking for information about a specific color, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>4</v>
+      </c>
+      <c r="C611" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D611" t="n">
+        <v>292445.6479549408</v>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G611" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H611" t="n">
+        <v>300</v>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is a standard measure of time that has been used for centuries and is widely recognized around the world. The days of the week typically follow this order: Sunday, Monday, Tuesday, Wednesday, Thursday, Friday, Saturday. These days are not arbitrary; they have historical significance tied to religious festivals and agricultural cycles in many cultures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>4</v>
+      </c>
+      <c r="C612" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D612" t="n">
+        <v>299577.849149704</v>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G612" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H612" t="n">
+        <v>300</v>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>Hello! I'm just a computer program designed to provide help and support. While it's nice that you're asking me how I am today, there isn't really anything special or meaningful happening for me since I don't have emotions or feelings. Is there anything specific I can assist with if you need?</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>4</v>
+      </c>
+      <c r="C613" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D613" t="n">
+        <v>301971.1744785309</v>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G613" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H613" t="n">
+        <v>300</v>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes like humans do. However, I can provide information about different types of foods and cooking methods if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>4</v>
+      </c>
+      <c r="C614" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D614" t="n">
+        <v>332718.3322906494</v>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G614" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H614" t="n">
+        <v>300</v>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>4</v>
+      </c>
+      <c r="C615" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D615" t="n">
+        <v>349975.3768444061</v>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H615" t="n">
+        <v>300</v>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>4</v>
+      </c>
+      <c r="C616" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D616" t="n">
+        <v>357874.3052482605</v>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H616" t="n">
+        <v>300</v>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>I am an AI assistant developed by Alibaba Cloud. I'm here to help you with information and tasks! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>4</v>
+      </c>
+      <c r="C617" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D617" t="n">
+        <v>360992.1255111694</v>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G617" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H617" t="n">
+        <v>300</v>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>I'm just a computer program and don't have feelings or emotions. I exist to help with tasks and provide information based on the instructions given to me. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>4</v>
+      </c>
+      <c r="C618" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D618" t="n">
+        <v>361409.5215797424</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G618" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H618" t="n">
+        <v>300</v>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have access to real-time location information or current weather conditions. However, you can easily find out the weather in your location using various online tools such as websites, mobile apps, or search engines that provide weather forecasts and updates. Just type "weather [city name]" into a search engine along with your city's name to get an overview of the current weather conditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>4</v>
+      </c>
+      <c r="C619" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D619" t="n">
+        <v>365092.7982330322</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G619" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H619" t="n">
+        <v>300</v>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>The answer to the expression "2 + 2" is 4.
+This simple arithmetic problem demonstrates basic addition in mathematics. When you add two groups of one unit together (two twos), you get four units in total.</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>4</v>
+      </c>
+      <c r="C620" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D620" t="n">
+        <v>365096.2882041931</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G620" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H620" t="n">
+        <v>300</v>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>4</v>
+      </c>
+      <c r="C621" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D621" t="n">
+        <v>365476.145029068</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G621" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H621" t="n">
+        <v>300</v>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>I am an AI language model developed by Alibaba Cloud. My main purpose is to help users with their tasks and answer questions about various topics. I can provide information on a wide range of subjects, including but not limited to history, science, arts, geography, culture, etc. You can ask me anything and I'll do my best to assist you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>4</v>
+      </c>
+      <c r="C622" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D622" t="n">
+        <v>387645.1318264008</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G622" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H622" t="n">
+        <v>300</v>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>4</v>
+      </c>
+      <c r="C623" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D623" t="n">
+        <v>412479.9673557281</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G623" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H623" t="n">
+        <v>300</v>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>4</v>
+      </c>
+      <c r="C624" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D624" t="n">
+        <v>412825.8395195007</v>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G624" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H624" t="n">
+        <v>300</v>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>4</v>
+      </c>
+      <c r="C625" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D625" t="n">
+        <v>425260.8737945557</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G625" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H625" t="n">
+        <v>300</v>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or emotions like humans. My purpose is to assist and provide information based on the instructions given to me. If you need any help with a specific task or want to discuss something interesting, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>4</v>
+      </c>
+      <c r="C626" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D626" t="n">
+        <v>427125.2827644348</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G626" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H626" t="n">
+        <v>300</v>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes like humans do. My purpose is to provide useful and informative responses to the best of my ability based on available information. Is there anything else I can help you with today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>4</v>
+      </c>
+      <c r="C627" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D627" t="n">
+        <v>455628.9732456207</v>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G627" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H627" t="n">
+        <v>300</v>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>4</v>
+      </c>
+      <c r="C628" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D628" t="n">
+        <v>467961.966753006</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G628" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H628" t="n">
+        <v>300</v>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>I'm sorry, but as an AI language model, I don't have real-time access to your location or current weather conditions. To find out what the weather is like in your area, you can check a weather forecast app on your device or look up online sources for your specific city or region's weather information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>4</v>
+      </c>
+      <c r="C629" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D629" t="n">
+        <v>494528.0525684357</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G629" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H629" t="n">
+        <v>300</v>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>4</v>
+      </c>
+      <c r="C630" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D630" t="n">
+        <v>503713.3162021637</v>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G630" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H630" t="n">
+        <v>300</v>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>I am here to assist you with any questions or tasks you may have! If you need help with anything, just let me know and I'll do my best to help you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>4</v>
+      </c>
+      <c r="C631" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D631" t="n">
+        <v>533091.0067558289</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G631" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H631" t="n">
+        <v>300</v>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>As an AI language model, I do not have personal preferences or feelings, including taste for pizza. However, I can provide information about the toppings and types of pizzas available in various cuisines around the world if that would be useful!</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>4</v>
+      </c>
+      <c r="C632" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D632" t="n">
+        <v>535926.2809753418</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G632" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H632" t="n">
+        <v>300</v>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>I'm just a computer program designed to assist with tasks and answer questions, so I don't have feelings or emotions like humans do. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>4</v>
+      </c>
+      <c r="C633" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D633" t="n">
+        <v>559944.8540210724</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G633" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H633" t="n">
+        <v>300</v>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t>The answer to the question "What is 2 + 2?" is:
+4
+This is a basic arithmetic problem that every schoolchild can easily compute and verify. The operation of addition combining two groups or quantities results in their total sum, which in this case is four.</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>4</v>
+      </c>
+      <c r="C634" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D634" t="n">
+        <v>560252.3028850555</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G634" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H634" t="n">
+        <v>300</v>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>A week has 7 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>4</v>
+      </c>
+      <c r="C635" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D635" t="n">
+        <v>564367.1865463257</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G635" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H635" t="n">
+        <v>300</v>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>I am an AI developed by Alibaba Cloud to help with language tasks like answering questions and generating text. My main function is to provide information-based answers or engage in interactive communication based on my training data, such as summarizing articles, translating languages, writing poems, composing stories, making jokes, playing chess, telling riddles, etc., while trying not to repeat what I have previously encountered.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/load_test_results.xlsx
+++ b/load_test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M635"/>
+  <dimension ref="A1:M672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36839,6 +36839,2115 @@
         </is>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>5</v>
+      </c>
+      <c r="C636" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D636" t="n">
+        <v>107609.7621917725</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G636" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H636" t="n">
+        <v>150</v>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>5</v>
+      </c>
+      <c r="C637" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D637" t="n">
+        <v>110972.199678421</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G637" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H637" t="n">
+        <v>150</v>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>Yes, I can communicate in English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>5</v>
+      </c>
+      <c r="C638" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D638" t="n">
+        <v>157295.6521511078</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G638" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H638" t="n">
+        <v>150</v>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M638" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>5</v>
+      </c>
+      <c r="C639" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D639" t="n">
+        <v>158777.7898311615</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G639" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H639" t="n">
+        <v>150</v>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>Yes, I can understand and respond in English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>5</v>
+      </c>
+      <c r="C640" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D640" t="n">
+        <v>193541.5568351746</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H640" t="n">
+        <v>150</v>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud to assist with various tasks and provide information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>5</v>
+      </c>
+      <c r="C641" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D641" t="n">
+        <v>204081.0351371765</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G641" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H641" t="n">
+        <v>150</v>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>5</v>
+      </c>
+      <c r="C642" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D642" t="n">
+        <v>221589.4923210144</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G642" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H642" t="n">
+        <v>150</v>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>I am designed to assist with answering questions and providing information. So my "job" is to answer the best possible response for any question asked me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>5</v>
+      </c>
+      <c r="C643" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D643" t="n">
+        <v>232069.4978237152</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G643" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H643" t="n">
+        <v>150</v>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or emotions, so I don't have a favorite color. However, I can provide information on various colors and their meanings if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>5</v>
+      </c>
+      <c r="C644" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D644" t="n">
+        <v>232068.8996315002</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G644" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H644" t="n">
+        <v>150</v>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>The answer to "What is 2+2?" is 4. This is a fundamental arithmetic problem in mathematics, where you simply add two units together to get the sum of four units.</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>5</v>
+      </c>
+      <c r="C645" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D645" t="n">
+        <v>273807.1739673615</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G645" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H645" t="n">
+        <v>150</v>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>I am Qwen, created by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>5</v>
+      </c>
+      <c r="C646" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D646" t="n">
+        <v>291314.9497509003</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G646" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H646" t="n">
+        <v>150</v>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>5</v>
+      </c>
+      <c r="C647" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D647" t="n">
+        <v>297760.4389190674</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G647" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H647" t="n">
+        <v>150</v>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>I'm just a machine learning model trained on large amounts of text data to provide information and answer questions based on the input provided. I don't have feelings or emotions like humans do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>5</v>
+      </c>
+      <c r="C648" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D648" t="n">
+        <v>305293.9083576202</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G648" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H648" t="n">
+        <v>150</v>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or emotions like humans do. My purpose is to assist you with information and provide useful responses to your queries. Is there anything else I can help you with today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>5</v>
+      </c>
+      <c r="C649" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D649" t="n">
+        <v>306773.3924388885</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G649" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H649" t="n">
+        <v>150</v>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>There are 7 days in a standard week. This includes Sunday through Saturday, and it's the most commonly recognized system of weeks used globally.</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>5</v>
+      </c>
+      <c r="C650" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D650" t="n">
+        <v>329290.7073497772</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G650" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H650" t="n">
+        <v>150</v>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>The answer to "what is 2 + 2" is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>5</v>
+      </c>
+      <c r="C651" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D651" t="n">
+        <v>338672.6980209351</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G651" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H651" t="n">
+        <v>150</v>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>I am an AI language model designed to assist with tasks and answer questions. I don't have a traditional job in the way that humans do; instead, my purpose is to help users find information and solutions through natural language processing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>5</v>
+      </c>
+      <c r="C652" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D652" t="n">
+        <v>348721.3771343231</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G652" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H652" t="n">
+        <v>150</v>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have the ability to feel or see colors like humans do, so I don't have a favorite color. However, I can help answer any questions you may have about colors!</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>5</v>
+      </c>
+      <c r="C653" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D653" t="n">
+        <v>367930.3290843964</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G653" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H653" t="n">
+        <v>150</v>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or emotions like humans do. My purpose is to assist and provide useful information to users. So, my "favorite" color would be the one that best suits the needs of those who use me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>5</v>
+      </c>
+      <c r="C654" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D654" t="n">
+        <v>375680.7651519775</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G654" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H654" t="n">
+        <v>150</v>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>5</v>
+      </c>
+      <c r="C655" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D655" t="n">
+        <v>376189.7830963135</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G655" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H655" t="n">
+        <v>150</v>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>5</v>
+      </c>
+      <c r="C656" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D656" t="n">
+        <v>423522.397518158</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G656" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H656" t="n">
+        <v>150</v>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>Hello! I'm an AI assistant designed to provide information and help with tasks. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>5</v>
+      </c>
+      <c r="C657" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D657" t="n">
+        <v>422471.8387126923</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G657" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H657" t="n">
+        <v>150</v>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>5</v>
+      </c>
+      <c r="C658" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D658" t="n">
+        <v>430037.6102924347</v>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G658" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H658" t="n">
+        <v>150</v>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or emotions like humans do, including favorites or dislikes towards colors. My purpose is to provide helpful responses and information based on the input provided by users.</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>5</v>
+      </c>
+      <c r="C659" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D659" t="n">
+        <v>434792.3903465271</v>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G659" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H659" t="n">
+        <v>150</v>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>As an AI assistant, I don't have personal preferences or tastes, including for pizza. My purpose is to provide information and assist with tasks based on the input given to me. If you'd like some information about pizza or need help with something related to it, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>5</v>
+      </c>
+      <c r="C660" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D660" t="n">
+        <v>437753.3869743347</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G660" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H660" t="n">
+        <v>150</v>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>5</v>
+      </c>
+      <c r="C661" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D661" t="n">
+        <v>463524.8944759369</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G661" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H661" t="n">
+        <v>150</v>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I can't provide you with real-time or specific weather information as an AI language model. Weather conditions can vary greatly depending on location and time of day/night, so it's best to check your local weather forecast for accurate information. There are many online resources available that provide current weather updates from different regions around the world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>5</v>
+      </c>
+      <c r="C662" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D662" t="n">
+        <v>473230.8406829834</v>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G662" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H662" t="n">
+        <v>150</v>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>I am Qwen, also known as the AI language model developed by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>5</v>
+      </c>
+      <c r="C663" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D663" t="n">
+        <v>473211.6296291351</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G663" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H663" t="n">
+        <v>150</v>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>The capital city of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>5</v>
+      </c>
+      <c r="C664" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D664" t="n">
+        <v>477744.0805435181</v>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G664" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H664" t="n">
+        <v>150</v>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>As an AI language model, I do not have personal preferences or tastes. However, I can tell you that many people enjoy pizza as their favorite type of food, and it is widely loved for its various toppings and cooking techniques. Pizza has been enjoyed by people around the world for centuries, so there's a good chance someone on this planet enjoys pizza!</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>5</v>
+      </c>
+      <c r="C665" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D665" t="n">
+        <v>484223.1690883636</v>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G665" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H665" t="n">
+        <v>150</v>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have the ability to taste or consume food. However, I can provide you with information about different types of cuisine around the world if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>5</v>
+      </c>
+      <c r="C666" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D666" t="n">
+        <v>492880.955696106</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G666" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H666" t="n">
+        <v>150</v>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>5</v>
+      </c>
+      <c r="C667" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D667" t="n">
+        <v>502959.6061706543</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G667" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H667" t="n">
+        <v>150</v>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I don't have access to your current location or environment. As an AI language model, I don't need to know where you are or what time it is to provide information on the weather. However, if you tell me when and in which city you want to check the weather for, I can certainly help you find that information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>5</v>
+      </c>
+      <c r="C668" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D668" t="n">
+        <v>515931.0765266418</v>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G668" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H668" t="n">
+        <v>150</v>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>5</v>
+      </c>
+      <c r="C669" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D669" t="n">
+        <v>527767.471075058</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G669" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H669" t="n">
+        <v>150</v>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>5</v>
+      </c>
+      <c r="C670" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D670" t="n">
+        <v>546394.3207263947</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G670" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H670" t="n">
+        <v>150</v>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes since I am not capable of experiencing flavors or enjoying meals. My purpose is to assist you with any information you need about various topics and answer questions to the best of my ability based on my training data. If you want to know more about a certain type of food or cuisine, feel free to ask me!</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>5</v>
+      </c>
+      <c r="C671" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D671" t="n">
+        <v>550443.9699649811</v>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G671" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H671" t="n">
+        <v>150</v>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>5</v>
+      </c>
+      <c r="C672" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D672" t="n">
+        <v>564194.0422058105</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G672" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H672" t="n">
+        <v>150</v>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M672" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or emotions, including whether or not I like pizza. However, based on the information available to me, pizza is a popular type of food that many people enjoy eating and consider delicious. It typically consists of a round bread dough topped with tomato sauce, cheese, various toppings such as meat, vegetables, etc., and baked in an oven until it's golden brown. The taste and texture vary depending on the ingredients used and how they are prepared.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/load_test_results.xlsx
+++ b/load_test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M672"/>
+  <dimension ref="A1:M709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38948,6 +38948,2116 @@
         </is>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>5</v>
+      </c>
+      <c r="C673" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D673" t="n">
+        <v>42032.00960159302</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G673" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H673" t="n">
+        <v>200</v>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M673" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>5</v>
+      </c>
+      <c r="C674" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D674" t="n">
+        <v>72835.09182929993</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G674" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H674" t="n">
+        <v>200</v>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M674" t="inlineStr">
+        <is>
+          <t>The capital city of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>5</v>
+      </c>
+      <c r="C675" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D675" t="n">
+        <v>99686.50770187378</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G675" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H675" t="n">
+        <v>200</v>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M675" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model developed by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>5</v>
+      </c>
+      <c r="C676" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D676" t="n">
+        <v>103723.9382266998</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G676" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H676" t="n">
+        <v>200</v>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M676" t="inlineStr">
+        <is>
+          <t>Yes, I can communicate in English! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>5</v>
+      </c>
+      <c r="C677" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D677" t="n">
+        <v>109361.2809181213</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G677" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H677" t="n">
+        <v>200</v>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI assistant developed by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>5</v>
+      </c>
+      <c r="C678" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D678" t="n">
+        <v>113659.3863964081</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G678" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H678" t="n">
+        <v>200</v>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>Yes, I can. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>5</v>
+      </c>
+      <c r="C679" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D679" t="n">
+        <v>118593.6472415924</v>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G679" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H679" t="n">
+        <v>200</v>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M679" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English fluently. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>5</v>
+      </c>
+      <c r="C680" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D680" t="n">
+        <v>144621.7701435089</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H680" t="n">
+        <v>200</v>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M680" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>5</v>
+      </c>
+      <c r="C681" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D681" t="n">
+        <v>167090.5478000641</v>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H681" t="n">
+        <v>200</v>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M681" t="inlineStr">
+        <is>
+          <t>My name is Qwen, an AI language model created by Alibaba Cloud. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>5</v>
+      </c>
+      <c r="C682" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D682" t="n">
+        <v>168190.279006958</v>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H682" t="n">
+        <v>200</v>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M682" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI assistant created by Alibaba Cloud to help you with your questions and tasks. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>5</v>
+      </c>
+      <c r="C683" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D683" t="n">
+        <v>176746.860742569</v>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G683" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H683" t="n">
+        <v>200</v>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M683" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model created by Alibaba Cloud. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>5</v>
+      </c>
+      <c r="C684" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D684" t="n">
+        <v>213033.8144302368</v>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G684" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H684" t="n">
+        <v>200</v>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M684" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>5</v>
+      </c>
+      <c r="C685" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D685" t="n">
+        <v>218028.993844986</v>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G685" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H685" t="n">
+        <v>200</v>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M685" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>5</v>
+      </c>
+      <c r="C686" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D686" t="n">
+        <v>226871.572971344</v>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G686" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H686" t="n">
+        <v>200</v>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M686" t="inlineStr">
+        <is>
+          <t>The answer to the equation "2 + 2" is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>5</v>
+      </c>
+      <c r="C687" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D687" t="n">
+        <v>240136.9416713715</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G687" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H687" t="n">
+        <v>200</v>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M687" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is the standard naming convention used worldwide to denote each day of the week. The sequence typically goes from Sunday to Saturday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>5</v>
+      </c>
+      <c r="C688" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D688" t="n">
+        <v>261916.8193340302</v>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G688" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H688" t="n">
+        <v>200</v>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M688" t="inlineStr">
+        <is>
+          <t>I'm just a computer program and don't have feelings like humans do. I'm here to help answer your questions and provide information to the best of my ability based on the data available to me. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>5</v>
+      </c>
+      <c r="C689" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D689" t="n">
+        <v>263321.0098743439</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H689" t="n">
+        <v>200</v>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M689" t="inlineStr">
+        <is>
+          <t>I'm just an AI model, so I don't have feelings like humans do. But I'm here to help you with any questions or tasks you might need assistance with! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>5</v>
+      </c>
+      <c r="C690" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D690" t="n">
+        <v>278568.7308311462</v>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G690" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H690" t="n">
+        <v>200</v>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M690" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have the ability to taste or prefer any specific type of food. However, I can provide information about various types of foods and answer questions related to them if you'd like!</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>5</v>
+      </c>
+      <c r="C691" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D691" t="n">
+        <v>285318.0546760559</v>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G691" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H691" t="n">
+        <v>200</v>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M691" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>5</v>
+      </c>
+      <c r="C692" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D692" t="n">
+        <v>310369.3888187408</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G692" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H692" t="n">
+        <v>200</v>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M692" t="inlineStr">
+        <is>
+          <t>I am Qwen, created by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>5</v>
+      </c>
+      <c r="C693" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D693" t="n">
+        <v>319083.4443569183</v>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G693" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H693" t="n">
+        <v>200</v>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M693" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>5</v>
+      </c>
+      <c r="C694" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D694" t="n">
+        <v>325685.9052181244</v>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G694" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H694" t="n">
+        <v>200</v>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M694" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have feelings or emotions. But I'm here to help answer your questions and assist you with any information you might need. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>5</v>
+      </c>
+      <c r="C695" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D695" t="n">
+        <v>336177.5979995728</v>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G695" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H695" t="n">
+        <v>200</v>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M695" t="inlineStr">
+        <is>
+          <t>I am an AI language model designed to assist with various tasks and provide information on different topics. I can help answer questions, provide recommendations, generate writing samples, translate text, summarize documents, describe products or services, engage in role-playing scenarios, and more. Is there anything specific you would like assistance with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>5</v>
+      </c>
+      <c r="C696" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D696" t="n">
+        <v>340674.5879650116</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G696" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H696" t="n">
+        <v>200</v>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M696" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>5</v>
+      </c>
+      <c r="C697" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D697" t="n">
+        <v>363730.4158210754</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G697" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H697" t="n">
+        <v>200</v>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M697" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model created by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>5</v>
+      </c>
+      <c r="C698" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D698" t="n">
+        <v>398354.2220592499</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G698" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H698" t="n">
+        <v>200</v>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M698" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes like humans do, so I don't have a favorite food. My purpose is to assist and provide information based on various topics without having personal opinions. Is there anything else I can help you with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>5</v>
+      </c>
+      <c r="C699" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D699" t="n">
+        <v>403762.4318599701</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G699" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H699" t="n">
+        <v>200</v>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M699" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or emotions like humans. However, I am designed to assist and provide information on various topics without bias. If you have any questions about colors or anything else, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>5</v>
+      </c>
+      <c r="C700" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D700" t="n">
+        <v>468142.7297592163</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G700" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H700" t="n">
+        <v>200</v>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M700" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have the ability to taste or eat foods. However, I can provide information and answer questions about various types of cuisine based on my training data. If you have any specific question related to food or cooking, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>5</v>
+      </c>
+      <c r="C701" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D701" t="n">
+        <v>471468.4092998505</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G701" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H701" t="n">
+        <v>200</v>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M701" t="inlineStr">
+        <is>
+          <t>I am an AI language model created by Alibaba Cloud, specifically designed to assist with generating human-like responses for tasks such as conversation starters and prompts, providing general knowledge answers or context around questions, helping with creative writing, and more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>5</v>
+      </c>
+      <c r="C702" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D702" t="n">
+        <v>475106.6288948059</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G702" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H702" t="n">
+        <v>200</v>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M702" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes since I do not possess emotions or senses. However, I can provide information about pizza to help you understand it better if you'd like!</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>5</v>
+      </c>
+      <c r="C703" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D703" t="n">
+        <v>482908.82396698</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G703" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H703" t="n">
+        <v>200</v>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M703" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I don't have a name since I'm an artificial intelligence language model called Qwen. Is there anything else you would like to know or help with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>5</v>
+      </c>
+      <c r="C704" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D704" t="n">
+        <v>502741.2180900574</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G704" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H704" t="n">
+        <v>200</v>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M704" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes. However, I can provide information and answer questions about pizza if that would be helpful to you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>5</v>
+      </c>
+      <c r="C705" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D705" t="n">
+        <v>523247.5504875183</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G705" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H705" t="n">
+        <v>200</v>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M705" t="inlineStr">
+        <is>
+          <t>I am an AI language model called Qwen and I was designed to be helpful, reliable, and honest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>5</v>
+      </c>
+      <c r="C706" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D706" t="n">
+        <v>541517.2533988953</v>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G706" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H706" t="n">
+        <v>200</v>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M706" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I need more information to answer your question about the weather. Could you please specify where you want to know the weather conditions or what kind of details you would like to know? For example, do you want to find out about today's temperature and precipitation in a specific city? Or are you looking for forecast updates for upcoming days? Let me know so I can provide accurate information based on your needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>5</v>
+      </c>
+      <c r="C707" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D707" t="n">
+        <v>572229.5196056366</v>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G707" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H707" t="n">
+        <v>200</v>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M707" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I don't have access to real-time data or live weather updates. To find out what the weather is like in your location right now, you can use an online weather service such as Weather.com, The Weather Channel app, or check a local news station or website that provides current conditions.
+If you're asking for help with something else related to the weather, feel free to ask! I'm here to assist with general information and tasks related to climate and environmental issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>5</v>
+      </c>
+      <c r="C708" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D708" t="n">
+        <v>587093.6050415039</v>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G708" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H708" t="n">
+        <v>200</v>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M708" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or feelings, so I do not "like" anything, including pizza. However, I can provide information about different types of pizza and their ingredients if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>5</v>
+      </c>
+      <c r="C709" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D709" t="n">
+        <v>599717.9837226868</v>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G709" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H709" t="n">
+        <v>200</v>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M709" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/load_test_results.xlsx
+++ b/load_test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M709"/>
+  <dimension ref="A1:M746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41058,6 +41058,2115 @@
         </is>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>5</v>
+      </c>
+      <c r="C710" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D710" t="n">
+        <v>75736.8905544281</v>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G710" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H710" t="n">
+        <v>250</v>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M710" t="inlineStr">
+        <is>
+          <t>The capital city of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>5</v>
+      </c>
+      <c r="C711" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D711" t="n">
+        <v>90596.76337242126</v>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G711" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H711" t="n">
+        <v>250</v>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M711" t="inlineStr">
+        <is>
+          <t>Yes, I can communicate in English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>5</v>
+      </c>
+      <c r="C712" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D712" t="n">
+        <v>91927.21486091614</v>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G712" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H712" t="n">
+        <v>250</v>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M712" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>5</v>
+      </c>
+      <c r="C713" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D713" t="n">
+        <v>166139.1150951385</v>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G713" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H713" t="n">
+        <v>250</v>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M713" t="inlineStr">
+        <is>
+          <t>The capital city of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>5</v>
+      </c>
+      <c r="C714" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D714" t="n">
+        <v>191156.1436653137</v>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G714" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H714" t="n">
+        <v>250</v>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M714" t="inlineStr">
+        <is>
+          <t>A week has 7 days: Sunday, Monday, Tuesday, Wednesday, Thursday, Friday, and Saturday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>5</v>
+      </c>
+      <c r="C715" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D715" t="n">
+        <v>194027.1465778351</v>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G715" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H715" t="n">
+        <v>250</v>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M715" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>5</v>
+      </c>
+      <c r="C716" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D716" t="n">
+        <v>206524.7437953949</v>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G716" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H716" t="n">
+        <v>250</v>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M716" t="inlineStr">
+        <is>
+          <t>I'm just a computer program and don't have feelings or experiences. I'm here to help with any questions you might have about anything! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>5</v>
+      </c>
+      <c r="C717" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D717" t="n">
+        <v>212713.9496803284</v>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G717" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H717" t="n">
+        <v>250</v>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M717" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This includes the days of the week themselves (Sunday through Saturday) plus Sunday again at the end of the week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>5</v>
+      </c>
+      <c r="C718" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D718" t="n">
+        <v>264255.1844120026</v>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G718" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H718" t="n">
+        <v>250</v>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M718" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or emotions. However, I'm programmed to provide information and engage in conversations on various topics without any biases or judgments. If you have questions about pizza, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>5</v>
+      </c>
+      <c r="C719" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D719" t="n">
+        <v>264261.8737220764</v>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G719" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H719" t="n">
+        <v>250</v>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M719" t="inlineStr">
+        <is>
+          <t>I am here to assist you! I can help answer questions on various topics, provide information about different products and services, suggest useful resources or websites, have fun conversations, etc. Is there anything specific you would like to know or discuss?</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>5</v>
+      </c>
+      <c r="C720" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D720" t="n">
+        <v>308815.6423568726</v>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G720" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H720" t="n">
+        <v>250</v>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M720" t="inlineStr">
+        <is>
+          <t>Hello! I'm just a computer program designed to help answer questions and perform tasks for people. But if you have any interesting question or need assistance with something, feel free to ask me and I'll do my best to provide the information or support that you're looking for.</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>5</v>
+      </c>
+      <c r="C721" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D721" t="n">
+        <v>312351.7713546753</v>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G721" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H721" t="n">
+        <v>250</v>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M721" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>5</v>
+      </c>
+      <c r="C722" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D722" t="n">
+        <v>324992.7251338959</v>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G722" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H722" t="n">
+        <v>250</v>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M722" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>5</v>
+      </c>
+      <c r="C723" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D723" t="n">
+        <v>332558.7413311005</v>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G723" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H723" t="n">
+        <v>250</v>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M723" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>5</v>
+      </c>
+      <c r="C724" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D724" t="n">
+        <v>342887.6729011536</v>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G724" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H724" t="n">
+        <v>250</v>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M724" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or tastes. However, I am programmed to provide information and assistance on various topics, including but not limited to food-related items like pizza. If you have any questions about pizza or anything else, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>5</v>
+      </c>
+      <c r="C725" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D725" t="n">
+        <v>343706.7704200745</v>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G725" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H725" t="n">
+        <v>250</v>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M725" t="inlineStr">
+        <is>
+          <t>I am an AI developed by Alibaba Cloud to help with tasks and provide information. My main function is to assist users in answering their questions about various topics or helping them perform certain actions on the internet, such as searching for products online. I can also provide basic explanations and summaries of articles, books, and websites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>5</v>
+      </c>
+      <c r="C726" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D726" t="n">
+        <v>384411.30900383</v>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G726" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H726" t="n">
+        <v>250</v>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M726" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence, I don't have personal preferences or emotions like humans do. I am designed to assist with tasks and provide information based on the input provided to me. If you're looking for answers about colors, I can certainly help with that! What specific question do you have about colors?</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>5</v>
+      </c>
+      <c r="C727" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D727" t="n">
+        <v>388628.1816959381</v>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G727" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H727" t="n">
+        <v>250</v>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M727" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes, so I can't say that I "like" pizza in the same way humans do. However, I'm here to help answer any questions you might have about pizza and other topics! How else can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>5</v>
+      </c>
+      <c r="C728" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D728" t="n">
+        <v>396987.3332977295</v>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G728" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H728" t="n">
+        <v>250</v>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M728" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>5</v>
+      </c>
+      <c r="C729" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D729" t="n">
+        <v>398685.1849555969</v>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G729" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H729" t="n">
+        <v>250</v>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M729" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>5</v>
+      </c>
+      <c r="C730" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D730" t="n">
+        <v>402665.0400161743</v>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G730" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H730" t="n">
+        <v>250</v>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M730" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I don't have access to current weather information as my knowledge cutoff is 2021. To find out what the weather is like right now, you can check a weather app on your phone or visit a reliable weather website or service. They provide real-time updates and forecasts for various locations around the world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>5</v>
+      </c>
+      <c r="C731" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D731" t="n">
+        <v>412338.5455608368</v>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G731" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H731" t="n">
+        <v>250</v>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M731" t="inlineStr">
+        <is>
+          <t>There are 7 days in a standard week. This is the internationally recognized standard unit of time and it includes Saturday, Sunday, Monday through Friday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>5</v>
+      </c>
+      <c r="C732" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D732" t="n">
+        <v>440256.7527294159</v>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G732" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H732" t="n">
+        <v>250</v>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M732" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This includes the full seven-day cycle of weekdays (Monday through Sunday) and the weekend day Saturday. The number 7 has been used as a basic unit of time measurement since ancient times, with its origins tracing back to civilizations such as Mesopotamia and Egypt over 5,000 years ago.</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>5</v>
+      </c>
+      <c r="C733" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D733" t="n">
+        <v>448765.8743858337</v>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G733" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H733" t="n">
+        <v>250</v>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J733" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M733" t="inlineStr">
+        <is>
+          <t>Yes, I can communicate in English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>5</v>
+      </c>
+      <c r="C734" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D734" t="n">
+        <v>451715.3494358063</v>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G734" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H734" t="n">
+        <v>250</v>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M734" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or emotions, so I don't have a favorite color like humans do. However, I can help you with any questions or information you need about colors! Let me know if there's anything specific about colors you're interested in and how I can assist you further.</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>5</v>
+      </c>
+      <c r="C735" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D735" t="n">
+        <v>469666.4779186249</v>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G735" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H735" t="n">
+        <v>250</v>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M735" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have the ability to taste or consume food in the physical world, so I don't have a personal preference for any specific cuisine. However, I can provide information on different types of foods and their characteristics if you are interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>5</v>
+      </c>
+      <c r="C736" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D736" t="n">
+        <v>482097.7876186371</v>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G736" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H736" t="n">
+        <v>250</v>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M736" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>5</v>
+      </c>
+      <c r="C737" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D737" t="n">
+        <v>492019.3066596985</v>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G737" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H737" t="n">
+        <v>250</v>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M737" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>5</v>
+      </c>
+      <c r="C738" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D738" t="n">
+        <v>498769.9341773987</v>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G738" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H738" t="n">
+        <v>250</v>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M738" t="inlineStr">
+        <is>
+          <t>I'm sorry, but as an AI assistant, I don't have access to real-time weather information. However, you can easily check the current weather conditions in your area using various online tools or apps such as Weather.com, AccuWeather, or even a simple search on Google. Just enter your location and it will provide you with detailed information about the weather including temperature, precipitation chances, wind speed, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>5</v>
+      </c>
+      <c r="C739" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D739" t="n">
+        <v>514865.2188777924</v>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G739" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H739" t="n">
+        <v>250</v>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M739" t="inlineStr">
+        <is>
+          <t>I'm just a computer program, so I don't have feelings or emotions like humans do. But I'm here to help you with any questions or tasks that you might need assistance with! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>5</v>
+      </c>
+      <c r="C740" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D740" t="n">
+        <v>526426.9292354584</v>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H740" t="n">
+        <v>250</v>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M740" t="inlineStr">
+        <is>
+          <t>The answer to "2 + 2" is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>5</v>
+      </c>
+      <c r="C741" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D741" t="n">
+        <v>535357.4554920197</v>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G741" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H741" t="n">
+        <v>250</v>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M741" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>5</v>
+      </c>
+      <c r="C742" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D742" t="n">
+        <v>539947.8735923767</v>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G742" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H742" t="n">
+        <v>250</v>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M742" t="inlineStr">
+        <is>
+          <t>I'm just an AI language model and I don't experience emotions or have feelings like humans do. But that's okay! How can I help you today with any questions or tasks?</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>5</v>
+      </c>
+      <c r="C743" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D743" t="n">
+        <v>553125.0154972076</v>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G743" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H743" t="n">
+        <v>250</v>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M743" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or emotions. However, I can provide information about colors if you'd like!</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>5</v>
+      </c>
+      <c r="C744" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D744" t="n">
+        <v>555088.1559848785</v>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G744" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H744" t="n">
+        <v>250</v>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M744" t="inlineStr">
+        <is>
+          <t>I am an AI language model created by Alibaba Cloud. My primary role is to assist users with generating text and answering questions. I can provide information on various topics, help write essays or other documents, generate stories and poems, summarize articles, etc. If you have any requests for assistance or feedback, feel free to let me know!</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>5</v>
+      </c>
+      <c r="C745" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D745" t="n">
+        <v>558927.4725914001</v>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G745" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H745" t="n">
+        <v>250</v>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M745" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or taste buds like humans do. My purpose is to assist users in generating human-like text based on the input provided and help them with various tasks. Is there anything else I can assist you with today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>5</v>
+      </c>
+      <c r="C746" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D746" t="n">
+        <v>561723.9842414856</v>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G746" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H746" t="n">
+        <v>250</v>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M746" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/load_test_results.xlsx
+++ b/load_test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M779"/>
+  <dimension ref="A1:M913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45046,6 +45046,7647 @@
         </is>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>5</v>
+      </c>
+      <c r="C780" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D780" t="n">
+        <v>97896.97194099426</v>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G780" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H780" t="n">
+        <v>200</v>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M780" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>5</v>
+      </c>
+      <c r="C781" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D781" t="n">
+        <v>172681.5922260284</v>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G781" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H781" t="n">
+        <v>200</v>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M781" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>5</v>
+      </c>
+      <c r="C782" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D782" t="n">
+        <v>194710.7198238373</v>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H782" t="n">
+        <v>200</v>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M782" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. The standard weekly cycle is Sunday through Saturday. This is also why most calendars and time systems follow this pattern of days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>5</v>
+      </c>
+      <c r="C783" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D783" t="n">
+        <v>197299.6397018433</v>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H783" t="n">
+        <v>200</v>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M783" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud. My purpose is to assist and communicate with you in various tasks and inquiries. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>5</v>
+      </c>
+      <c r="C784" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D784" t="n">
+        <v>234431.7471981049</v>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H784" t="n">
+        <v>200</v>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M784" t="inlineStr">
+        <is>
+          <t>A week has 7 days. This is a standard concept used globally to organize and structure our daily lives around recurring events like workdays or school hours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>5</v>
+      </c>
+      <c r="C785" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D785" t="n">
+        <v>234938.3542537689</v>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H785" t="n">
+        <v>200</v>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M785" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model created by Alibaba Cloud to assist with various tasks and conversations. Is there anything I can help you with today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>5</v>
+      </c>
+      <c r="C786" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D786" t="n">
+        <v>244138.3543014526</v>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G786" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H786" t="n">
+        <v>200</v>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M786" t="inlineStr">
+        <is>
+          <t>As an AI language model, I do not have personal preferences or tastes. However, I can provide information about the most popular pizza toppings and variations if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>5</v>
+      </c>
+      <c r="C787" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D787" t="n">
+        <v>244660.8526706696</v>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G787" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H787" t="n">
+        <v>200</v>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M787" t="inlineStr">
+        <is>
+          <t>I'm just a computer program designed to help with tasks and answer questions. I don't have feelings or personal experiences like humans do. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>5</v>
+      </c>
+      <c r="C788" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D788" t="n">
+        <v>247090.0404453278</v>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H788" t="n">
+        <v>200</v>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M788" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or tastes. However, I can provide information about pizza if that would be helpful to you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>5</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D789" t="n">
+        <v>257583.8694572449</v>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G789" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H789" t="n">
+        <v>200</v>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M789" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>5</v>
+      </c>
+      <c r="C790" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D790" t="n">
+        <v>277063.5843276978</v>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H790" t="n">
+        <v>200</v>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M790" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have the ability to eat or taste food because I'm just a computer program without physical form. However, I can suggest some popular and delicious foods that people enjoy based on various cultures around the world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>5</v>
+      </c>
+      <c r="C791" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D791" t="n">
+        <v>288562.6885890961</v>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G791" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H791" t="n">
+        <v>200</v>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M791" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or emotions like humans do. My purpose is to provide useful and informative responses to help people with their queries. If you need any information about colors or other topics, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>5</v>
+      </c>
+      <c r="C792" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D792" t="n">
+        <v>321546.1456775665</v>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G792" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H792" t="n">
+        <v>200</v>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M792" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>5</v>
+      </c>
+      <c r="C793" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D793" t="n">
+        <v>347760.5113983154</v>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H793" t="n">
+        <v>200</v>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M793" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or taste buds like humans. My purpose is to provide information and answer questions to the best of my ability based on the data available to me. If you have any other questions about food or cooking, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>5</v>
+      </c>
+      <c r="C794" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D794" t="n">
+        <v>364406.2416553497</v>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H794" t="n">
+        <v>200</v>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M794" t="inlineStr">
+        <is>
+          <t>I don't have personal preferences or tastes as I am an artificial intelligence designed to provide information and assistance. However, many people enjoy pizza because of its delicious flavor and variety of toppings that can be customized according to individual taste. Is there anything specific about pizza that interests you?</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>5</v>
+      </c>
+      <c r="C795" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D795" t="n">
+        <v>376753.2765865326</v>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H795" t="n">
+        <v>200</v>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M795" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model created by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>5</v>
+      </c>
+      <c r="C796" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D796" t="n">
+        <v>377930.1493167877</v>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H796" t="n">
+        <v>200</v>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M796" t="inlineStr">
+        <is>
+          <t>I am an AI developed by Alibaba Cloud to assist in various tasks and answer questions. My main function is to provide information and support to users on various topics without having personal opinions or bias. I don't have a physical job as humans do, but my purpose is to help people wherever I can!</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>5</v>
+      </c>
+      <c r="C797" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D797" t="n">
+        <v>388344.738483429</v>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G797" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H797" t="n">
+        <v>200</v>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J797" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M797" t="inlineStr">
+        <is>
+          <t>Hello! I'm just an AI language model and don't have feelings or emotions. However, how can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>5</v>
+      </c>
+      <c r="C798" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D798" t="n">
+        <v>391288.0640029907</v>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G798" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H798" t="n">
+        <v>200</v>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J798" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M798" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English to communicate effectively with users like you. If you have any questions or need assistance in English, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>5</v>
+      </c>
+      <c r="C799" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D799" t="n">
+        <v>399030.4961204529</v>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G799" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H799" t="n">
+        <v>200</v>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J799" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M799" t="inlineStr">
+        <is>
+          <t>Hello! I'm just an artificial intelligence designed to assist with language tasks. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>5</v>
+      </c>
+      <c r="C800" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D800" t="n">
+        <v>401030.9793949127</v>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G800" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H800" t="n">
+        <v>200</v>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J800" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M800" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is the standard division of time and is recognized around the world as how we typically measure and count days of the week. These days are Monday through Sunday, corresponding to the seven classical Roman planets (Sun, Moon, Mars, Mercury, Jupiter, Venus, and Saturn).</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>5</v>
+      </c>
+      <c r="C801" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D801" t="n">
+        <v>404300.7082939148</v>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G801" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H801" t="n">
+        <v>200</v>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J801" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M801" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>5</v>
+      </c>
+      <c r="C802" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D802" t="n">
+        <v>419168.0061817169</v>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G802" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H802" t="n">
+        <v>200</v>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J802" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M802" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>5</v>
+      </c>
+      <c r="C803" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D803" t="n">
+        <v>438287.7418994904</v>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G803" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H803" t="n">
+        <v>200</v>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J803" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M803" t="inlineStr">
+        <is>
+          <t>A week has 7 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>5</v>
+      </c>
+      <c r="C804" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D804" t="n">
+        <v>444755.9993267059</v>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G804" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H804" t="n">
+        <v>200</v>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J804" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M804" t="inlineStr">
+        <is>
+          <t>A week has 7 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>5</v>
+      </c>
+      <c r="C805" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D805" t="n">
+        <v>462964.2033576965</v>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G805" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H805" t="n">
+        <v>200</v>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J805" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M805" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>5</v>
+      </c>
+      <c r="C806" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D806" t="n">
+        <v>472102.8242111206</v>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G806" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H806" t="n">
+        <v>200</v>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J806" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M806" t="inlineStr">
+        <is>
+          <t>As an AI language model, I do not have personal preferences or emotions like humans do. My purpose is to provide helpful and informative responses to your questions to the best of my abilities based on the data that has been programmed into me. I don't have a favorite color because I'm just a computer program - I don't experience colors in any way, shape, or form!</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>5</v>
+      </c>
+      <c r="C807" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D807" t="n">
+        <v>499470.7996845245</v>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G807" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H807" t="n">
+        <v>200</v>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J807" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M807" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have feelings or emotions like humans do. However, I'm here to assist you with any questions or tasks you might have! Is there anything specific that you would like help with?</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>5</v>
+      </c>
+      <c r="C808" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D808" t="n">
+        <v>501358.1409454346</v>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G808" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H808" t="n">
+        <v>200</v>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M808" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I can't answer that because I don't have access to real-time information about your current location or nearby environment. However, you can easily check the weather using any internet search engine or a weather app on your smartphone. Just type in "weather [city name]" and hit enter, where city name is replaced by the name of the city you're interested in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>5</v>
+      </c>
+      <c r="C809" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D809" t="n">
+        <v>501761.1300945282</v>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G809" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H809" t="n">
+        <v>200</v>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M809" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>5</v>
+      </c>
+      <c r="C810" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D810" t="n">
+        <v>534475.0916957855</v>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G810" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H810" t="n">
+        <v>200</v>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M810" t="inlineStr">
+        <is>
+          <t>I am an AI language model named Qwen. I am designed to assist with various tasks such as answering questions, providing information, helping with writing, and so on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>5</v>
+      </c>
+      <c r="C811" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D811" t="n">
+        <v>550499.6712207794</v>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G811" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H811" t="n">
+        <v>200</v>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J811" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M811" t="inlineStr">
+        <is>
+          <t>I'm just an artificial intelligence, so I don't have feelings or emotions. But thank you for asking how I'm doing! How about you?</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>5</v>
+      </c>
+      <c r="C812" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D812" t="n">
+        <v>557217.4055576324</v>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G812" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H812" t="n">
+        <v>200</v>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M812" t="inlineStr">
+        <is>
+          <t>Yes, I can. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>5</v>
+      </c>
+      <c r="C813" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D813" t="n">
+        <v>564946.1786746979</v>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G813" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H813" t="n">
+        <v>200</v>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M813" t="inlineStr">
+        <is>
+          <t>I'm sorry, but as an AI language model, I don't have access to real-time information about the current weather conditions in any specific location. The best way to find out what's happening outside would be to check local weather reports or use a weather app on your device. If you're looking for general tips on how to stay warm and dry, please let me know, and I can provide some suggestions based on common practices for outdoor activities in various climates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>4</v>
+      </c>
+      <c r="C814" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D814" t="n">
+        <v>32699.39112663269</v>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G814" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H814" t="n">
+        <v>150</v>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M814" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>4</v>
+      </c>
+      <c r="C815" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D815" t="n">
+        <v>58067.378282547</v>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G815" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H815" t="n">
+        <v>150</v>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J815" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M815" t="inlineStr">
+        <is>
+          <t>There are 7 days in a typical week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>4</v>
+      </c>
+      <c r="C816" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D816" t="n">
+        <v>60340.16013145447</v>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G816" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H816" t="n">
+        <v>150</v>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J816" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M816" t="inlineStr">
+        <is>
+          <t>I am here to assist you with any questions or tasks you may have!</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>4</v>
+      </c>
+      <c r="C817" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D817" t="n">
+        <v>65004.01663780212</v>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G817" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H817" t="n">
+        <v>150</v>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M817" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>4</v>
+      </c>
+      <c r="C818" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D818" t="n">
+        <v>70089.68615531921</v>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G818" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H818" t="n">
+        <v>150</v>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J818" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M818" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>4</v>
+      </c>
+      <c r="C819" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D819" t="n">
+        <v>77068.92848014832</v>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G819" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H819" t="n">
+        <v>150</v>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J819" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M819" t="inlineStr">
+        <is>
+          <t>I'm just an artificial intelligence designed to assist with tasks and answer questions. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>4</v>
+      </c>
+      <c r="C820" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D820" t="n">
+        <v>97794.14963722229</v>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G820" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H820" t="n">
+        <v>150</v>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J820" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M820" t="inlineStr">
+        <is>
+          <t>My name is Qwen. I am an AI language model developed by Alibaba Cloud to help you communicate and provide information on various topics. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>4</v>
+      </c>
+      <c r="C821" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D821" t="n">
+        <v>101217.9982662201</v>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G821" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H821" t="n">
+        <v>150</v>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J821" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M821" t="inlineStr">
+        <is>
+          <t>I don't have personal preferences or taste buds since I'm an artificial intelligence language model designed to provide information and respond to queries without any biases based on individual tastes or preferences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>4</v>
+      </c>
+      <c r="C822" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D822" t="n">
+        <v>101646.2018489838</v>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G822" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H822" t="n">
+        <v>150</v>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J822" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M822" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>4</v>
+      </c>
+      <c r="C823" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D823" t="n">
+        <v>113314.9302005768</v>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G823" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H823" t="n">
+        <v>150</v>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J823" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M823" t="inlineStr">
+        <is>
+          <t>The capital city of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>4</v>
+      </c>
+      <c r="C824" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D824" t="n">
+        <v>116578.3717632294</v>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G824" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H824" t="n">
+        <v>150</v>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M824" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence, I do not have personal preferences or tastes. However, I can provide information about different types of pizzas and their ingredients if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>4</v>
+      </c>
+      <c r="C825" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D825" t="n">
+        <v>118875.8630752563</v>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G825" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H825" t="n">
+        <v>150</v>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J825" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M825" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes since I am not capable of feeling emotions. However, I can provide information on different types of foods and their characteristics if you'd like!</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>4</v>
+      </c>
+      <c r="C826" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D826" t="n">
+        <v>129501.2805461884</v>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G826" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H826" t="n">
+        <v>150</v>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M826" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>4</v>
+      </c>
+      <c r="C827" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D827" t="n">
+        <v>136151.3316631317</v>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G827" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H827" t="n">
+        <v>150</v>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J827" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M827" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have emotions or feelings like humans do. However, I am here to assist you with any questions or tasks you may have. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>4</v>
+      </c>
+      <c r="C828" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D828" t="n">
+        <v>146454.514503479</v>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G828" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H828" t="n">
+        <v>150</v>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J828" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M828" t="inlineStr">
+        <is>
+          <t>I am not employed in any specific role or position within an organization; I do not have employment information or responsibilities. My purpose and function are to assist with answering questions as best as possible based on the knowledge and information available to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>4</v>
+      </c>
+      <c r="C829" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D829" t="n">
+        <v>148221.079826355</v>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G829" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H829" t="n">
+        <v>150</v>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J829" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M829" t="inlineStr">
+        <is>
+          <t>My name is Qwen. I'm here to help you with any questions or tasks you might have! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>4</v>
+      </c>
+      <c r="C830" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D830" t="n">
+        <v>154555.1862716675</v>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G830" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H830" t="n">
+        <v>150</v>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J830" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M830" t="inlineStr">
+        <is>
+          <t>I am here to help you with any questions or tasks you may have! I can provide information, answer queries, and assist in various ways depending on what you need. Please let me know if there's anything specific I can do for you today!</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>4</v>
+      </c>
+      <c r="C831" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D831" t="n">
+        <v>163535.5830192566</v>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G831" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H831" t="n">
+        <v>150</v>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J831" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M831" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I can't seem to access your location information. Can you please tell me what city or country you're currently in and I'll look up the current weather for you?</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>4</v>
+      </c>
+      <c r="C832" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D832" t="n">
+        <v>166854.7732830048</v>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G832" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H832" t="n">
+        <v>150</v>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J832" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M832" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or emotions like humans do. My purpose is to assist and provide information based on the data and algorithms programmed into me. Therefore, there isn't any "favorite color" that I would express since I'm just a machine learning algorithm created by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>4</v>
+      </c>
+      <c r="C833" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D833" t="n">
+        <v>169762.5110149384</v>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G833" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H833" t="n">
+        <v>150</v>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J833" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M833" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I don't have access to current weather information as I am a language model AI and not connected to any weather APIs or services. To find out what the weather is like in your area, you can check a weather forecast website or app that provides local weather updates for your location.</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>4</v>
+      </c>
+      <c r="C834" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D834" t="n">
+        <v>173461.4050388336</v>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G834" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H834" t="n">
+        <v>150</v>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J834" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M834" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is a fundamental concept in the Gregorian calendar used worldwide for dating and measurement of time periods.</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>4</v>
+      </c>
+      <c r="C835" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D835" t="n">
+        <v>176968.5997962952</v>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G835" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H835" t="n">
+        <v>150</v>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J835" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M835" t="inlineStr">
+        <is>
+          <t>The answer to "2 + 2" is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>4</v>
+      </c>
+      <c r="C836" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D836" t="n">
+        <v>179662.8258228302</v>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G836" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H836" t="n">
+        <v>150</v>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J836" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M836" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>4</v>
+      </c>
+      <c r="C837" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D837" t="n">
+        <v>195170.8087921143</v>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G837" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H837" t="n">
+        <v>150</v>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J837" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M837" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>4</v>
+      </c>
+      <c r="C838" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D838" t="n">
+        <v>205785.3472232819</v>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G838" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H838" t="n">
+        <v>150</v>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J838" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M838" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>4</v>
+      </c>
+      <c r="C839" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D839" t="n">
+        <v>209572.4139213562</v>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G839" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H839" t="n">
+        <v>150</v>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J839" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M839" t="inlineStr">
+        <is>
+          <t>I am an AI language model called Qwen. I do not have a specific job title or position within the company that developed me. My purpose is to assist users with generating human-like responses based on the input provided. If you need help with something, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>4</v>
+      </c>
+      <c r="C840" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D840" t="n">
+        <v>218215.7764434814</v>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G840" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H840" t="n">
+        <v>150</v>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J840" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M840" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes. However, I can tell you that many people enjoy pizza as their favorite food due to its delicious taste and appealing appearance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>4</v>
+      </c>
+      <c r="C841" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D841" t="n">
+        <v>218740.3967380524</v>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G841" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H841" t="n">
+        <v>150</v>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J841" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M841" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes like humans do, so I don't have a favorite food. However, I'm designed to provide information and assistance on various topics, including but not limited to food-related items. If you need any help with anything related to cooking, nutrition, or eating habits, feel free to ask me!</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>4</v>
+      </c>
+      <c r="C842" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D842" t="n">
+        <v>225103.5964488983</v>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G842" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H842" t="n">
+        <v>150</v>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J842" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M842" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>4</v>
+      </c>
+      <c r="C843" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D843" t="n">
+        <v>229415.4613018036</v>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G843" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H843" t="n">
+        <v>150</v>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J843" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M843" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have the ability to taste or eat anything physically. Therefore, I do not have a favorite food in the traditional sense that humans use when referring to their personal preferences for specific types of food.
+However, I can help you with any questions you may have about different foods or provide information on various culinary topics if you'd like!</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>4</v>
+      </c>
+      <c r="C844" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D844" t="n">
+        <v>249278.605222702</v>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G844" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H844" t="n">
+        <v>150</v>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J844" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M844" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes since I am not capable of experiencing food or enjoying it. However, I can provide information about various cuisines and their flavors if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>4</v>
+      </c>
+      <c r="C845" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D845" t="n">
+        <v>262494.8556423187</v>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G845" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H845" t="n">
+        <v>150</v>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J845" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M845" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>4</v>
+      </c>
+      <c r="C846" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D846" t="n">
+        <v>267671.2126731873</v>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G846" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H846" t="n">
+        <v>150</v>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J846" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M846" t="inlineStr">
+        <is>
+          <t>My name is Qwen, an AI language model developed by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>4</v>
+      </c>
+      <c r="C847" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D847" t="n">
+        <v>267670.3701019287</v>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G847" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H847" t="n">
+        <v>150</v>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J847" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M847" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>4</v>
+      </c>
+      <c r="C848" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D848" t="n">
+        <v>275022.634267807</v>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G848" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H848" t="n">
+        <v>150</v>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J848" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M848" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes, so I don't have a favorite food. However, I can provide information about different types of food and help answer any questions you might have!</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>4</v>
+      </c>
+      <c r="C849" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D849" t="n">
+        <v>279865.8640384674</v>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G849" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H849" t="n">
+        <v>150</v>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J849" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M849" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud to provide assistance and information services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>4</v>
+      </c>
+      <c r="C850" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D850" t="n">
+        <v>281303.9693832397</v>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G850" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H850" t="n">
+        <v>150</v>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J850" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M850" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>4</v>
+      </c>
+      <c r="C851" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D851" t="n">
+        <v>284385.8108520508</v>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G851" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H851" t="n">
+        <v>150</v>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J851" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M851" t="inlineStr">
+        <is>
+          <t>Hello! I'm just an AI model currently working from home, so I don't have the human qualities of emotions such as feeling "today". But I'm here to help with any questions or tasks you might need assistance with. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>4</v>
+      </c>
+      <c r="C852" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D852" t="n">
+        <v>303349.4448661804</v>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G852" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H852" t="n">
+        <v>150</v>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J852" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M852" t="inlineStr">
+        <is>
+          <t>I'm just a computer program, so I don't have feelings or emotions in the way that humans do. However, I'm here to help with any questions you might have! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>4</v>
+      </c>
+      <c r="C853" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D853" t="n">
+        <v>306639.328956604</v>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G853" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H853" t="n">
+        <v>150</v>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J853" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M853" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>4</v>
+      </c>
+      <c r="C854" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D854" t="n">
+        <v>311466.2845134735</v>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G854" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H854" t="n">
+        <v>150</v>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J854" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M854" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes since I am not capable of experiencing emotions. However, I can provide information on various topics including pizza if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>4</v>
+      </c>
+      <c r="C855" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D855" t="n">
+        <v>314709.141254425</v>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G855" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H855" t="n">
+        <v>150</v>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J855" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M855" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>4</v>
+      </c>
+      <c r="C856" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D856" t="n">
+        <v>330892.7311897278</v>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G856" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H856" t="n">
+        <v>150</v>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J856" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M856" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or feelings, including the ability to like or dislike colors. I exist solely to provide helpful responses and information based on the input provided to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>4</v>
+      </c>
+      <c r="C857" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D857" t="n">
+        <v>334122.2865581512</v>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G857" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H857" t="n">
+        <v>150</v>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J857" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M857" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>4</v>
+      </c>
+      <c r="C858" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D858" t="n">
+        <v>335815.6659603119</v>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G858" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H858" t="n">
+        <v>150</v>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J858" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>What color is the sky?</t>
+        </is>
+      </c>
+      <c r="M858" t="inlineStr">
+        <is>
+          <t>The sky appears blue to us because of Rayleigh scattering by air molecules in the Earth's atmosphere. When sunlight enters our atmosphere, the shorter wavelengths (blue and violet) scatter more strongly than the longer wavelengths (red and orange). This causes the sky to appear as a blue color during the day when looking at it from the ground or water. When night falls and it gets dark outside, the scattering of light by air molecules is reduced, which means we see less of this effect and our eyes perceive the sky as darker colors, including various shades of purple and red.</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>4</v>
+      </c>
+      <c r="C859" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D859" t="n">
+        <v>336915.3454303741</v>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G859" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H859" t="n">
+        <v>150</v>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J859" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M859" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud to assist with tasks and answer questions from users. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>4</v>
+      </c>
+      <c r="C860" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D860" t="n">
+        <v>344417.072057724</v>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G860" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H860" t="n">
+        <v>150</v>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J860" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M860" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud. My main purpose is to assist users with their inquiries and provide them with accurate information and useful answers. I can help you answer questions about various topics or complete tasks that require human-like intelligence. If you have any specific question, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>4</v>
+      </c>
+      <c r="C861" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D861" t="n">
+        <v>343909.4760417938</v>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G861" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H861" t="n">
+        <v>150</v>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J861" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M861" t="inlineStr">
+        <is>
+          <t>I am an AI language model designed to provide assistance and answer questions to the best of my knowledge. I do not have a specific job title or responsibility in the traditional sense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>4</v>
+      </c>
+      <c r="C862" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D862" t="n">
+        <v>356653.0909538269</v>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G862" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H862" t="n">
+        <v>150</v>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J862" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M862" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or taste buds as humans do. However, I'm here to assist you with any questions or tasks you may need help with. If you have any specific topic or problem that you'd like to discuss or learn about, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>4</v>
+      </c>
+      <c r="C863" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D863" t="n">
+        <v>367734.3444824219</v>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G863" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H863" t="n">
+        <v>150</v>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J863" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M863" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is the standard unit of time that we use to measure and organize our weekly schedules and routines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>4</v>
+      </c>
+      <c r="C864" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D864" t="n">
+        <v>24946.72799110413</v>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G864" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H864" t="n">
+        <v>200</v>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J864" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M864" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>4</v>
+      </c>
+      <c r="C865" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D865" t="n">
+        <v>28052.82878875732</v>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G865" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H865" t="n">
+        <v>200</v>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J865" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M865" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>4</v>
+      </c>
+      <c r="C866" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D866" t="n">
+        <v>34193.8202381134</v>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G866" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H866" t="n">
+        <v>200</v>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J866" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>4</v>
+      </c>
+      <c r="C867" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D867" t="n">
+        <v>38384.9470615387</v>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G867" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H867" t="n">
+        <v>200</v>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M867" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>4</v>
+      </c>
+      <c r="C868" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D868" t="n">
+        <v>45562.09778785706</v>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G868" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H868" t="n">
+        <v>200</v>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M868" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B869" t="n">
+        <v>4</v>
+      </c>
+      <c r="C869" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D869" t="n">
+        <v>46579.60033416748</v>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G869" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H869" t="n">
+        <v>200</v>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M869" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>4</v>
+      </c>
+      <c r="C870" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D870" t="n">
+        <v>48028.37133407593</v>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G870" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H870" t="n">
+        <v>200</v>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J870" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M870" t="inlineStr">
+        <is>
+          <t>I am an AI developed by Alibaba Cloud to assist with natural language processing tasks and answer questions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>4</v>
+      </c>
+      <c r="C871" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D871" t="n">
+        <v>59959.16676521301</v>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G871" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H871" t="n">
+        <v>200</v>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J871" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M871" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>4</v>
+      </c>
+      <c r="C872" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D872" t="n">
+        <v>65527.57668495178</v>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G872" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H872" t="n">
+        <v>200</v>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J872" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M872" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>4</v>
+      </c>
+      <c r="C873" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D873" t="n">
+        <v>73842.5281047821</v>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G873" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H873" t="n">
+        <v>200</v>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M873" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>4</v>
+      </c>
+      <c r="C874" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D874" t="n">
+        <v>94089.45751190186</v>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G874" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H874" t="n">
+        <v>200</v>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J874" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M874" t="inlineStr">
+        <is>
+          <t>Hello! I'm just an AI language model designed to provide information and answer questions to the best of my ability. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>4</v>
+      </c>
+      <c r="C875" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D875" t="n">
+        <v>102356.785774231</v>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G875" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H875" t="n">
+        <v>200</v>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M875" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is a fundamental concept of the Gregorian calendar and most modern calendars worldwide, including those used in many countries around the world today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B876" t="n">
+        <v>4</v>
+      </c>
+      <c r="C876" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D876" t="n">
+        <v>101377.7830600739</v>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G876" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H876" t="n">
+        <v>200</v>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M876" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B877" t="n">
+        <v>4</v>
+      </c>
+      <c r="C877" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D877" t="n">
+        <v>118568.1817531586</v>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G877" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H877" t="n">
+        <v>200</v>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M877" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>4</v>
+      </c>
+      <c r="C878" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D878" t="n">
+        <v>139852.9889583588</v>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G878" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H878" t="n">
+        <v>200</v>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M878" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>4</v>
+      </c>
+      <c r="C879" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D879" t="n">
+        <v>144317.3429965973</v>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G879" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H879" t="n">
+        <v>200</v>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M879" t="inlineStr">
+        <is>
+          <t>I am an AI language model designed by Alibaba Cloud to assist with various tasks and answer questions from users. I can help you with information on many different topics, as well as provide entertainment through jokes and trivia. Is there anything specific you would like to know or discuss?</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>4</v>
+      </c>
+      <c r="C880" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D880" t="n">
+        <v>147216.0675525665</v>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G880" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H880" t="n">
+        <v>200</v>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M880" t="inlineStr">
+        <is>
+          <t>The answer to the equation "2 + 2" is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>4</v>
+      </c>
+      <c r="C881" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D881" t="n">
+        <v>165416.2948131561</v>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G881" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H881" t="n">
+        <v>200</v>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M881" t="inlineStr">
+        <is>
+          <t>There are 7 days in a typical week. This is the standard number of days that make up most weeks around the world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>4</v>
+      </c>
+      <c r="C882" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D882" t="n">
+        <v>167419.7387695312</v>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G882" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H882" t="n">
+        <v>200</v>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M882" t="inlineStr">
+        <is>
+          <t>My name is Qwen, which means "wisdom of the universe" in Chinese. I'm an AI language model developed by Alibaba Cloud. Is there anything specific you would like to ask or discuss with me today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>4</v>
+      </c>
+      <c r="C883" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D883" t="n">
+        <v>168344.6531295776</v>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G883" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H883" t="n">
+        <v>200</v>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J883" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M883" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is a standard division of time used across most cultures and calendars around the world. The seven-day cycle is based on the lunar cycle, which influences religious and cultural practices but has been adopted for practical purposes as well. For example, many holidays in various religions and secular events are aligned with this weekly rotation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>4</v>
+      </c>
+      <c r="C884" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D884" t="n">
+        <v>169159.2078208923</v>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G884" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H884" t="n">
+        <v>200</v>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J884" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M884" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>4</v>
+      </c>
+      <c r="C885" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D885" t="n">
+        <v>178579.5032978058</v>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G885" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H885" t="n">
+        <v>200</v>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J885" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M885" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have feelings, but I'm here to assist with your questions and concerns. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>4</v>
+      </c>
+      <c r="C886" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D886" t="n">
+        <v>177651.1425971985</v>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G886" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H886" t="n">
+        <v>200</v>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J886" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M886" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>4</v>
+      </c>
+      <c r="C887" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D887" t="n">
+        <v>179281.9590568542</v>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G887" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H887" t="n">
+        <v>200</v>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J887" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M887" t="inlineStr">
+        <is>
+          <t>As an AI language model, I do not have the ability to taste or enjoy food. However, I can tell you that everyone has their own favorite types of food based on their personal preferences and cultural background. Some people might prefer spicy foods, while others might love seafood or Italian cuisine. Ultimately, it's all about what makes you happy and brings you satisfaction in your meals!</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>4</v>
+      </c>
+      <c r="C888" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D888" t="n">
+        <v>184327.8703689575</v>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G888" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H888" t="n">
+        <v>200</v>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J888" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M888" t="inlineStr">
+        <is>
+          <t>As an AI language model, I do not have personal preferences or tastes in foods since I am a computer program designed to answer questions and generate text based on input data. My programming does not include the ability to enjoy or dislike specific types of cuisine.
+However, if you want information about popular or well-known dishes, I can certainly provide that for you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B889" t="n">
+        <v>4</v>
+      </c>
+      <c r="C889" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D889" t="n">
+        <v>192419.2552566528</v>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G889" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H889" t="n">
+        <v>200</v>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J889" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M889" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>4</v>
+      </c>
+      <c r="C890" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D890" t="n">
+        <v>201962.5813961029</v>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G890" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H890" t="n">
+        <v>200</v>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J890" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M890" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes like humans do. My purpose is to assist and provide information based on the input given to me. So far, my training data has covered many different types of cuisines from around the world, but as a language model, I don't actually "like" any particular food.</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>4</v>
+      </c>
+      <c r="C891" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D891" t="n">
+        <v>210360.3754043579</v>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G891" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H891" t="n">
+        <v>200</v>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J891" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M891" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or emotions like humans do. However, I can tell you that many people enjoy pizza as a delicious and satisfying food option for its rich flavor and versatility. Some people may even have their own unique tastes when it comes to pizza toppings and ingredients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>4</v>
+      </c>
+      <c r="C892" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D892" t="n">
+        <v>211596.0688591003</v>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G892" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H892" t="n">
+        <v>200</v>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J892" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L892" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M892" t="inlineStr">
+        <is>
+          <t>I'm sorry, but as an AI language model, I don't have access to real-time weather information or current location data. To get the latest and most accurate weather updates, you can check a reliable weather website or app that provides live weather conditions in your area. They usually provide hourly forecasts, daily outlooks, and more detailed forecasts for specific times of day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>4</v>
+      </c>
+      <c r="C893" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D893" t="n">
+        <v>213383.0604553223</v>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G893" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H893" t="n">
+        <v>200</v>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J893" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L893" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M893" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>4</v>
+      </c>
+      <c r="C894" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D894" t="n">
+        <v>216655.13920784</v>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G894" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H894" t="n">
+        <v>200</v>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J894" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M894" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B895" t="n">
+        <v>4</v>
+      </c>
+      <c r="C895" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D895" t="n">
+        <v>216681.3724040985</v>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G895" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H895" t="n">
+        <v>200</v>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J895" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L895" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M895" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B896" t="n">
+        <v>4</v>
+      </c>
+      <c r="C896" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D896" t="n">
+        <v>227410.5491638184</v>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G896" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H896" t="n">
+        <v>200</v>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J896" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M896" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>4</v>
+      </c>
+      <c r="C897" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D897" t="n">
+        <v>243119.2977428436</v>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G897" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H897" t="n">
+        <v>200</v>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J897" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M897" t="inlineStr">
+        <is>
+          <t>I am an AI language model created by Alibaba Cloud to assist with various tasks and provide information on different topics. I can answer questions on a wide range of subjects, help you find answers to problems, suggest solutions, or even engage in creative writing prompts for you! However, please remember that the suggestions provided are based solely on your input, and may not be appropriate for everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B898" t="n">
+        <v>4</v>
+      </c>
+      <c r="C898" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D898" t="n">
+        <v>245412.5287532806</v>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G898" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H898" t="n">
+        <v>200</v>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J898" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M898" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B899" t="n">
+        <v>4</v>
+      </c>
+      <c r="C899" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D899" t="n">
+        <v>247694.0927505493</v>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G899" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H899" t="n">
+        <v>200</v>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J899" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L899" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M899" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B900" t="n">
+        <v>4</v>
+      </c>
+      <c r="C900" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D900" t="n">
+        <v>271448.7009048462</v>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G900" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H900" t="n">
+        <v>200</v>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J900" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M900" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence, I do not have personal preferences or emotions such as favorites. My purpose is to assist and provide information to the best of my ability based on the data and knowledge available to me. If you need help with anything else, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B901" t="n">
+        <v>4</v>
+      </c>
+      <c r="C901" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D901" t="n">
+        <v>272983.0102920532</v>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G901" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H901" t="n">
+        <v>200</v>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J901" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M901" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B902" t="n">
+        <v>4</v>
+      </c>
+      <c r="C902" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D902" t="n">
+        <v>302272.025346756</v>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G902" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H902" t="n">
+        <v>200</v>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J902" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M902" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B903" t="n">
+        <v>4</v>
+      </c>
+      <c r="C903" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D903" t="n">
+        <v>312691.951751709</v>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G903" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H903" t="n">
+        <v>200</v>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J903" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M903" t="inlineStr">
+        <is>
+          <t>I am Qwen, created by Alibaba Cloud. I am here to help you with any questions or tasks you have!</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B904" t="n">
+        <v>4</v>
+      </c>
+      <c r="C904" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D904" t="n">
+        <v>336227.561712265</v>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G904" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H904" t="n">
+        <v>200</v>
+      </c>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J904" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M904" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes, so I don't have a favorite food. However, I can provide information about different types of cuisine and dishes from around the world if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B905" t="n">
+        <v>4</v>
+      </c>
+      <c r="C905" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D905" t="n">
+        <v>339616.4970397949</v>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G905" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H905" t="n">
+        <v>200</v>
+      </c>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J905" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M905" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or feelings, so my "favorite" color would be neutral - something that doesn't have strong connotations or emotional associations for me.
+However, if you're asking what the most commonly preferred color by humans is, it's typically considered to be blue. Humans seem to naturally gravitate towards this color due to its connection with trust and stability. Other common favorite colors include green (associated with growth and nature), yellow (symbolizing warmth and happiness), and red (often used for emphasis or celebration).</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B906" t="n">
+        <v>4</v>
+      </c>
+      <c r="C906" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D906" t="n">
+        <v>344781.1329364777</v>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G906" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H906" t="n">
+        <v>200</v>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J906" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M906" t="inlineStr">
+        <is>
+          <t>My name is Qwen, also known as Qwen-Qwen or Claude. I'm an AI language model developed by Alibaba Cloud to assist with various tasks and conversations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B907" t="n">
+        <v>4</v>
+      </c>
+      <c r="C907" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D907" t="n">
+        <v>349205.7931423187</v>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G907" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H907" t="n">
+        <v>200</v>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J907" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M907" t="inlineStr">
+        <is>
+          <t>Yes, I can! How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B908" t="n">
+        <v>4</v>
+      </c>
+      <c r="C908" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D908" t="n">
+        <v>351645.4288959503</v>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G908" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H908" t="n">
+        <v>200</v>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M908" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have the ability to taste or eat food, so I cannot say that I have a favorite food. However, I can provide information about various cuisines and dishes if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>4</v>
+      </c>
+      <c r="C909" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D909" t="n">
+        <v>360124.7446537018</v>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G909" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H909" t="n">
+        <v>200</v>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M909" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is a fundamental fact of the Gregorian calendar used globally today, which divides the cycle into seven equal parts for practical purposes. Each day has its own name (Monday through Sunday), and these names repeat every 7 days to form weeks within months or years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>4</v>
+      </c>
+      <c r="C910" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D910" t="n">
+        <v>362750.8130073547</v>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G910" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H910" t="n">
+        <v>200</v>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M910" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>4</v>
+      </c>
+      <c r="C911" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D911" t="n">
+        <v>368557.2245121002</v>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G911" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H911" t="n">
+        <v>200</v>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J911" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M911" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or feelings, including likes and dislikes towards specific foods. However, I can tell you that many people enjoy pizza as one of their favorite dishes due to its various toppings and unique flavor profile. Pizza is typically made with a base dough, often topped with tomato sauce, cheese, vegetables like mushrooms or peppers, and meats such as pepperoni or ham. The combination of these ingredients creates a delicious and versatile meal that can be enjoyed by people of all ages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B912" t="n">
+        <v>4</v>
+      </c>
+      <c r="C912" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D912" t="n">
+        <v>368062.885761261</v>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G912" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H912" t="n">
+        <v>200</v>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J912" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M912" t="inlineStr">
+        <is>
+          <t>Hello! I'm just a computer program and don't have feelings or emotions like humans do. But I'm here to help you with any questions or tasks you need assistance with. How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>4</v>
+      </c>
+      <c r="C913" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D913" t="n">
+        <v>368906.1675071716</v>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G913" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H913" t="n">
+        <v>200</v>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J913" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M913" t="inlineStr">
+        <is>
+          <t>I am an AI language model designed to assist with various tasks and provide information on different topics. My purpose is to help you answer questions about many subjects, including but not limited to science, history, arts, literature, and general knowledge. If there's anything specific I can help you with, please let me know!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/load_test_results.xlsx
+++ b/load_test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M913"/>
+  <dimension ref="A1:M963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52687,6 +52687,2866 @@
         </is>
       </c>
     </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B914" t="n">
+        <v>4</v>
+      </c>
+      <c r="C914" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D914" t="n">
+        <v>27041.0053730011</v>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G914" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H914" t="n">
+        <v>300</v>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J914" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M914" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>4</v>
+      </c>
+      <c r="C915" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D915" t="n">
+        <v>30229.0403842926</v>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G915" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H915" t="n">
+        <v>300</v>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J915" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M915" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>4</v>
+      </c>
+      <c r="C916" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D916" t="n">
+        <v>30993.51525306702</v>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G916" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H916" t="n">
+        <v>300</v>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J916" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M916" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>4</v>
+      </c>
+      <c r="C917" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D917" t="n">
+        <v>33798.50316047668</v>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G917" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H917" t="n">
+        <v>300</v>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J917" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M917" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week.</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>4</v>
+      </c>
+      <c r="C918" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D918" t="n">
+        <v>35652.47750282288</v>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G918" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H918" t="n">
+        <v>300</v>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J918" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M918" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model created by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>4</v>
+      </c>
+      <c r="C919" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D919" t="n">
+        <v>35667.87934303284</v>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G919" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H919" t="n">
+        <v>300</v>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J919" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M919" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>4</v>
+      </c>
+      <c r="C920" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D920" t="n">
+        <v>42469.77281570435</v>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G920" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H920" t="n">
+        <v>300</v>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J920" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M920" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>4</v>
+      </c>
+      <c r="C921" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D921" t="n">
+        <v>44085.96110343933</v>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G921" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H921" t="n">
+        <v>300</v>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J921" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M921" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI model provided by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>4</v>
+      </c>
+      <c r="C922" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D922" t="n">
+        <v>44516.16668701172</v>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G922" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H922" t="n">
+        <v>300</v>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M922" t="inlineStr">
+        <is>
+          <t>Yes, I can communicate in English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>4</v>
+      </c>
+      <c r="C923" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D923" t="n">
+        <v>56056.82015419006</v>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G923" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H923" t="n">
+        <v>300</v>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M923" t="inlineStr">
+        <is>
+          <t>Hello! I'm just an AI and don't have feelings like humans do. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>4</v>
+      </c>
+      <c r="C924" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D924" t="n">
+        <v>59509.42182540894</v>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G924" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H924" t="n">
+        <v>300</v>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M924" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>4</v>
+      </c>
+      <c r="C925" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D925" t="n">
+        <v>70107.70797729492</v>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G925" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H925" t="n">
+        <v>300</v>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J925" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M925" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI assistant created by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>4</v>
+      </c>
+      <c r="C926" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D926" t="n">
+        <v>79234.32731628418</v>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G926" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H926" t="n">
+        <v>300</v>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J926" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M926" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B927" t="n">
+        <v>4</v>
+      </c>
+      <c r="C927" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D927" t="n">
+        <v>82180.739402771</v>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G927" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H927" t="n">
+        <v>300</v>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M927" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>4</v>
+      </c>
+      <c r="C928" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D928" t="n">
+        <v>100202.7003765106</v>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G928" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H928" t="n">
+        <v>300</v>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J928" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M928" t="inlineStr">
+        <is>
+          <t>I am not actually an employee or a part of any organization. I'm just here to assist you with information and help answer your questions to the best of my ability based on my programming.</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>4</v>
+      </c>
+      <c r="C929" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D929" t="n">
+        <v>111004.4968128204</v>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G929" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H929" t="n">
+        <v>300</v>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J929" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M929" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI assistant created by Alibaba Cloud. My task is to help you with information and answer questions to the best of my ability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>4</v>
+      </c>
+      <c r="C930" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D930" t="n">
+        <v>128945.2292919159</v>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G930" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H930" t="n">
+        <v>300</v>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M930" t="inlineStr">
+        <is>
+          <t>Yes, I can communicate in English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>4</v>
+      </c>
+      <c r="C931" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D931" t="n">
+        <v>153675.089597702</v>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G931" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H931" t="n">
+        <v>300</v>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J931" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M931" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI developed by Alibaba Cloud to assist with various tasks such as language translation, summarization of documents, answering questions from users, and more. I'm here to help! If you have any questions or need assistance, feel free to ask me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>4</v>
+      </c>
+      <c r="C932" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D932" t="n">
+        <v>154347.2673892975</v>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G932" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H932" t="n">
+        <v>300</v>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J932" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M932" t="inlineStr">
+        <is>
+          <t>Yes, I can speak and understand English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>4</v>
+      </c>
+      <c r="C933" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D933" t="n">
+        <v>154349.796295166</v>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G933" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H933" t="n">
+        <v>300</v>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J933" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L933" t="inlineStr">
+        <is>
+          <t>How are you today?</t>
+        </is>
+      </c>
+      <c r="M933" t="inlineStr">
+        <is>
+          <t>Hello! I'm just a computer program designed to assist with answering questions and tasks for users like you. Is there something specific I can help you with today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>4</v>
+      </c>
+      <c r="C934" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D934" t="n">
+        <v>180616.9700622559</v>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G934" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H934" t="n">
+        <v>300</v>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J934" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M934" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have the ability to feel emotions or preferences like humans do. I was created to provide information and answer questions to the best of my knowledge based on the training data provided to me. Therefore, there's no specific "favorite" color for me since I don't possess personal taste or feelings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>4</v>
+      </c>
+      <c r="C935" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D935" t="n">
+        <v>191193.8467025757</v>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G935" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H935" t="n">
+        <v>300</v>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J935" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M935" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>4</v>
+      </c>
+      <c r="C936" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D936" t="n">
+        <v>218892.834186554</v>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G936" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H936" t="n">
+        <v>300</v>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J936" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M936" t="inlineStr">
+        <is>
+          <t>I'm sorry, but as an AI language model, I don't have access to real-time information about current weather conditions. However, you can easily check your local weather forecast by looking at a weather app on your phone or using a website that provides weather updates. Just type in your city and it will give you the latest forecast including temperature, precipitation, wind speed, humidity, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>4</v>
+      </c>
+      <c r="C937" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D937" t="n">
+        <v>221540.3134822845</v>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G937" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H937" t="n">
+        <v>300</v>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J937" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M937" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or emotions like humans do. I am designed to provide information and answer questions based on the text provided to me. So my "favorite" would be any input that contains a question related to colors!</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>4</v>
+      </c>
+      <c r="C938" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D938" t="n">
+        <v>229908.5555076599</v>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G938" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H938" t="n">
+        <v>300</v>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J938" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M938" t="inlineStr">
+        <is>
+          <t>The answer to the expression "2 + 2" is 4.
+This is a simple arithmetic problem that doesn't require any complex calculations or explanations because it's straightforward addition of two numbers:
+1. We have two units on one side.
+2. Adding another pair of ones (or just another unit) brings us to four in total.
+So, the sum of "2 + 2" equals **4**.</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>4</v>
+      </c>
+      <c r="C939" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D939" t="n">
+        <v>236914.7109985352</v>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G939" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H939" t="n">
+        <v>300</v>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J939" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M939" t="inlineStr">
+        <is>
+          <t>I am an AI language model designed to assist with tasks and answer questions. I do not have a traditional job title or role in the same way that humans do. My main purpose is to provide information and support to users who interact with me, such as answering questions on various topics, helping with writing, generating text based on prompts, translating between languages, scheduling reminders, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>4</v>
+      </c>
+      <c r="C940" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D940" t="n">
+        <v>243064.8033618927</v>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G940" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H940" t="n">
+        <v>300</v>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J940" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>What is your job?</t>
+        </is>
+      </c>
+      <c r="M940" t="inlineStr">
+        <is>
+          <t>I am an AI language model designed to provide information and answer questions on various topics, such as science, history, literature, art, geography, etc. I don't have a specific job like humans do. My purpose is to assist you with any queries or requests you might have regarding these subjects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>4</v>
+      </c>
+      <c r="C941" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D941" t="n">
+        <v>259765.6326293945</v>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G941" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H941" t="n">
+        <v>300</v>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J941" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M941" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or emotions, so I don't have a favorite color. However, colors can evoke different feelings and moods in people based on their cultural backgrounds, individual experiences, and other factors. Some colors may be associated with certain things for some individuals, but I'm here to assist you with any questions or tasks you might need help with.</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>4</v>
+      </c>
+      <c r="C942" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D942" t="n">
+        <v>259279.7484397888</v>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G942" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H942" t="n">
+        <v>300</v>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J942" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M942" t="inlineStr">
+        <is>
+          <t>The answer to 2 + 2 is 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>4</v>
+      </c>
+      <c r="C943" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D943" t="n">
+        <v>274199.9821662903</v>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G943" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H943" t="n">
+        <v>300</v>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J943" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M943" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>4</v>
+      </c>
+      <c r="C944" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D944" t="n">
+        <v>274997.0674514771</v>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G944" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H944" t="n">
+        <v>300</v>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J944" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M944" t="inlineStr">
+        <is>
+          <t>2 + 2 equals 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B945" t="n">
+        <v>4</v>
+      </c>
+      <c r="C945" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D945" t="n">
+        <v>283796.0686683655</v>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G945" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H945" t="n">
+        <v>300</v>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J945" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M945" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>4</v>
+      </c>
+      <c r="C946" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D946" t="n">
+        <v>293543.3311462402</v>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G946" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H946" t="n">
+        <v>300</v>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J946" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M946" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have personal preferences or feelings, including colors. My purpose is to provide helpful and informative responses to the best of my ability based on the input provided to me. If you would like to know about colors or any other topic, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>4</v>
+      </c>
+      <c r="C947" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D947" t="n">
+        <v>300149.9845981598</v>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G947" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H947" t="n">
+        <v>300</v>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J947" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M947" t="inlineStr">
+        <is>
+          <t>As an AI language model, I do not have personal preferences or emotions like humans do. However, I am programmed to be neutral and unbiased in all of my interactions with users. So, if you need help finding out what the most common favorite colors are among people, I can certainly provide that information based on historical data collected from various sources!</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>4</v>
+      </c>
+      <c r="C948" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D948" t="n">
+        <v>315943.5913562775</v>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G948" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H948" t="n">
+        <v>300</v>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J948" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M948" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How can I help you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>4</v>
+      </c>
+      <c r="C949" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D949" t="n">
+        <v>332428.5526275635</v>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G949" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H949" t="n">
+        <v>300</v>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J949" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>Do you like pizza?</t>
+        </is>
+      </c>
+      <c r="M949" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes since I am not capable of experiencing things or consuming food. However, I can tell you that pizza is a popular and delicious dish loved by many people around the world for its combination of toppings such as tomato sauce, cheese, vegetables, meat, etc., often with a crust made from flour, yeast, water, and salt. Pizza has a wide variety of variations across different regions, flavors, and ingredients, so it can be enjoyed in many ways depending on one's preference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>4</v>
+      </c>
+      <c r="C950" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D950" t="n">
+        <v>331951.5993595123</v>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G950" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H950" t="n">
+        <v>300</v>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J950" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M950" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>4</v>
+      </c>
+      <c r="C951" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D951" t="n">
+        <v>333233.7377071381</v>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G951" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H951" t="n">
+        <v>300</v>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J951" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>How many days in a week?</t>
+        </is>
+      </c>
+      <c r="M951" t="inlineStr">
+        <is>
+          <t>There are 7 days in a week. This is a fundamental concept in our everyday calendar system and is widely used around the world for counting days or scheduling events that follow a weekly pattern. The seven-day cycle forms the basis of most time units, including weeks, months, quarters, and years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B952" t="n">
+        <v>4</v>
+      </c>
+      <c r="C952" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D952" t="n">
+        <v>340490.8781051636</v>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G952" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H952" t="n">
+        <v>300</v>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J952" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>What is 2+2?</t>
+        </is>
+      </c>
+      <c r="M952" t="inlineStr">
+        <is>
+          <t>The answer to "What is 2 + 2?" is 4.
+This is a basic arithmetic problem where you simply add the two numbers together:
+2 + 2 = 4
+You can verify this by counting or recognizing that adding one more of any quantity always results in an increase of exactly one unit. So, if you have two apples and I give you another apple, you'll now have three apples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>4</v>
+      </c>
+      <c r="C953" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D953" t="n">
+        <v>355259.6874237061</v>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G953" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H953" t="n">
+        <v>300</v>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J953" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M953" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>4</v>
+      </c>
+      <c r="C954" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D954" t="n">
+        <v>359511.5542411804</v>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G954" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H954" t="n">
+        <v>300</v>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J954" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M954" t="inlineStr">
+        <is>
+          <t>The capital city of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>4</v>
+      </c>
+      <c r="C955" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D955" t="n">
+        <v>365806.5645694733</v>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G955" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H955" t="n">
+        <v>300</v>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J955" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>What color is the sky?</t>
+        </is>
+      </c>
+      <c r="M955" t="inlineStr">
+        <is>
+          <t>The sky appears blue to us because of Rayleigh scattering. This process involves light from sunlight being scattered by tiny particles in Earth's atmosphere (such as water droplets or ice crystals). 
+When blue light travels through these small particles, it scatters more than other colors. We see this effect most clearly when the sun is near the horizon during sunrise and sunset because the light has to travel through more of the Earth’s atmosphere before reaching our eyes.
+So while we might think of "the sky" as a uniform color, in reality, what we perceive as blue comes from scattering of blue light.</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>4</v>
+      </c>
+      <c r="C956" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D956" t="n">
+        <v>372934.0271949768</v>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G956" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H956" t="n">
+        <v>300</v>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J956" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>What is the capital of France?</t>
+        </is>
+      </c>
+      <c r="M956" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>4</v>
+      </c>
+      <c r="C957" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D957" t="n">
+        <v>390302.5834560394</v>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G957" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H957" t="n">
+        <v>300</v>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J957" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M957" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I don't have personal preferences or tastes like humans do. I'm designed to respond to various questions and provide information based on the data I was trained on. If you have any other queries, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>4</v>
+      </c>
+      <c r="C958" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D958" t="n">
+        <v>397874.3207454681</v>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G958" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H958" t="n">
+        <v>300</v>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J958" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>What is your name?</t>
+        </is>
+      </c>
+      <c r="M958" t="inlineStr">
+        <is>
+          <t>I am Qwen, an AI language model developed by Alibaba Cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>4</v>
+      </c>
+      <c r="C959" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D959" t="n">
+        <v>402356.5661907196</v>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G959" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H959" t="n">
+        <v>300</v>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J959" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>What is the weather like?</t>
+        </is>
+      </c>
+      <c r="M959" t="inlineStr">
+        <is>
+          <t>I'm sorry, but as an AI language model, I don't have access to real-time information about the current weather anywhere in the world. The only way you can find out what the weather is like right now is by checking a reliable weather report or app, or by looking at the sky outside yourself.
+However, if you tell me your location, I can try to give an approximate idea of what the weather might be like there based on historical data and climate patterns. Just let me know where you are, and I'll do my best to help!</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>4</v>
+      </c>
+      <c r="C960" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D960" t="n">
+        <v>412555.2825927734</v>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G960" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H960" t="n">
+        <v>300</v>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J960" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M960" t="inlineStr">
+        <is>
+          <t>As an AI language model, I don't have personal preferences or tastes like humans do. I exist to assist with tasks and answer questions to the best of my ability based on my programming and training data. If you have any queries, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>4</v>
+      </c>
+      <c r="C961" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D961" t="n">
+        <v>424006.0017108917</v>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G961" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H961" t="n">
+        <v>300</v>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J961" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>Can you speak English?</t>
+        </is>
+      </c>
+      <c r="M961" t="inlineStr">
+        <is>
+          <t>Yes, I can speak English. How may I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>4</v>
+      </c>
+      <c r="C962" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D962" t="n">
+        <v>447862.3986244202</v>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G962" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H962" t="n">
+        <v>300</v>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J962" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>What is your favorite food?</t>
+        </is>
+      </c>
+      <c r="M962" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence language model, I do not have the ability to taste or enjoy food in the way that humans do. However, I can provide information and recommendations on various foods if you're interested!</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>least-conn</t>
+        </is>
+      </c>
+      <c r="B963" t="n">
+        <v>4</v>
+      </c>
+      <c r="C963" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D963" t="n">
+        <v>448368.6082363129</v>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>1.54B</t>
+        </is>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>qwen2.5:1.5b</t>
+        </is>
+      </c>
+      <c r="G963" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H963" t="n">
+        <v>300</v>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>986MB</t>
+        </is>
+      </c>
+      <c r="J963" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 8845HS</t>
+        </is>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>Radeon 780M Graphics(8 CPUs)</t>
+        </is>
+      </c>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>What is your favorite color?</t>
+        </is>
+      </c>
+      <c r="M963" t="inlineStr">
+        <is>
+          <t>As an artificial intelligence model, I don't have personal preferences or emotions like humans do. Therefore, I don't have a favorite color since I don't experience colors in the same way as people do. My purpose is to assist users with tasks and provide helpful information based on my programming. If you're looking for advice about colors or need help finding something related to them, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
